--- a/REGULAR/HRMO/AGUSTIN, MA LUISA FELLLO.xlsx
+++ b/REGULAR/HRMO/AGUSTIN, MA LUISA FELLLO.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="256">
   <si>
     <t>PERIOD</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>8/18,31/2023</t>
   </si>
 </sst>
 </file>
@@ -1821,10 +1824,10 @@
   </sheetPr>
   <dimension ref="A2:K508"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="3105" topLeftCell="A353" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3480" topLeftCell="A373" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
+      <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +1992,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>132.6566</v>
+        <v>135.1566</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1999,7 +2002,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>151.25</v>
+        <v>153.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -10162,13 +10165,15 @@
         <v>45108</v>
       </c>
       <c r="B386" s="21"/>
-      <c r="C386" s="14"/>
+      <c r="C386" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D386" s="41"/>
       <c r="E386" s="9"/>
       <c r="F386" s="21"/>
-      <c r="G386" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G386" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H386" s="41"/>
       <c r="I386" s="9"/>
@@ -10179,19 +10184,25 @@
       <c r="A387" s="35">
         <v>45139</v>
       </c>
-      <c r="B387" s="21"/>
-      <c r="C387" s="14"/>
+      <c r="B387" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C387" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D387" s="41"/>
       <c r="E387" s="9"/>
       <c r="F387" s="21"/>
-      <c r="G387" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G387" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H387" s="41"/>
       <c r="I387" s="9"/>
       <c r="J387" s="12"/>
-      <c r="K387" s="21"/>
+      <c r="K387" s="21" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="35">
